--- a/app/Sofra Tasks Schedule for Web Training.xlsx
+++ b/app/Sofra Tasks Schedule for Web Training.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sofraTranning\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SofraTrainning-master\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sofra" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -253,15 +253,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,8 +548,8 @@
   </sheetPr>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -559,24 +559,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="b">
+      <c r="C3" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -584,7 +584,7 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="b">
+      <c r="C4" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -595,7 +595,7 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="b">
+      <c r="C5" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -603,14 +603,14 @@
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6" t="b">
+      <c r="C7" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -618,7 +618,7 @@
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="6" t="b">
+      <c r="C8" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -626,7 +626,7 @@
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6" t="b">
+      <c r="C9" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -634,10 +634,10 @@
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -645,8 +645,8 @@
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -655,23 +655,23 @@
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="b">
-        <v>0</v>
+      <c r="C12" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="b">
-        <v>0</v>
+      <c r="C13" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="6" t="b">
+      <c r="C14" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -679,163 +679,172 @@
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C15" t="b">
-        <v>0</v>
+      <c r="C15" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C17" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C18" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C19" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C20" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C21" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C22" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C24" s="3" t="b">
+        <f>C19</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C25" s="3" t="b">
+        <f>C20</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C26" s="3" t="b">
+        <f t="shared" ref="C26:C28" si="0">C21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C27" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C28" s="3" t="b">
+        <f>C17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C30" s="3" t="b">
+        <f>C18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C31" s="3" t="b">
+        <f t="shared" ref="C31:C33" si="1">C19</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C32" t="b">
-        <v>0</v>
+      <c r="C32" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -845,16 +854,17 @@
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" t="b">
-        <v>0</v>
+      <c r="C33" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
